--- a/matlab_statistical_parameters.xlsx
+++ b/matlab_statistical_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Desktop\master_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC9E52D-4977-44A9-A557-F5907DE6AF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1F701-B264-4A7C-9C04-279CA3BF412E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11844" yWindow="396" windowWidth="9384" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
